--- a/biology/Botanique/Rogier_Vanhoorne/Rogier_Vanhoorne.xlsx
+++ b/biology/Botanique/Rogier_Vanhoorne/Rogier_Vanhoorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rogier Vanhoorne (ou Roger Vanhoorne) né à Bruges le 3 février 1920 et mort à Bruxelles le 11 octobre 2015[1] est un micropaléontologue et paléobotaniste belge, professeur émérite à l'Université d'Anvers, professeur à la Vrije Universiteit Brussel et directeur de laboratoire à l'Institut royal des sciences naturelles de Belgique. Il a le grade de lieutenant-colonel d’artillerie de réserve.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rogier Vanhoorne (ou Roger Vanhoorne) né à Bruges le 3 février 1920 et mort à Bruxelles le 11 octobre 2015 est un micropaléontologue et paléobotaniste belge, professeur émérite à l'Université d'Anvers, professeur à la Vrije Universiteit Brussel et directeur de laboratoire à l'Institut royal des sciences naturelles de Belgique. Il a le grade de lieutenant-colonel d’artillerie de réserve.
 </t>
         </is>
       </c>
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Parcours académique
-Après avoir suivi des études humanités gréco-latines à l'école des cadets de Brustem. Roger Vanhoorne s'inscrit en 1940 à l'université de Gand[2]. Il y obtient en 1944 sa licence en botanique[3],[2], l’agrégation de l'enseignement supérieur en botanique et zoologie et, en 1957, son doctorat en sciences botaniques[4].
-Carrière scientifique
-Roger Vanhoorne commence sa carrière en 1944 en tant que collaborateur scientifique au département de paléobotanique du Musée Royal d'Histoire Naturelle à Bruxelles.
-Il devient l'assistant de François Stockmans[2] en 1947 à l'Institut royal des sciences naturelles de Belgique, y est nommé sous-directeur de laboratoire en 1957, pour ensuite devenir directeur de laboratoire de 1963 à 1966[5].
-Il redevient collaborateur scientifique dans le département de micropaléontologie et paleobotanique de l'Institut royal des sciences naturelles de Belgique[N 1] lorsqu'il est nommé professeur ordinaire à l'université d'Anvers, fonction qu'il assurera jusqu'à sa retraite prise en 1985. Il y assure la fonction de directeur du département de botanique générale[6],[7] (titulaire de la chaire Algemene Plantkunde).
-Il est aussi professeur ordinaire à l’Universitaire Instelling te Antwerpen (UIA) de 1973 à 1985 et professeur en paléobotanique, en palynologie et en datation par le carbone 14 à la Vrije Universiteit Brussel de 1977 à 1985, cours donnés dans le cadre du programme international post-graduat en géologie quaternaire fondamentale et appliquée.
-En dehors des auditoires, ses activités concernent la recherche stratigraphique macro et microbotanique des dépôts de l'ère cénozoïque en Belgique et dans les pays limitrophes.
-Carrière militaire
-Roger Vanhoorne est admis en 1939 à l'École royale militaire[8].
-En 1940, il participe à la seconde Guerre mondiale[2]. Il obtient le grade de sous-lieutenant dans l'armée active deux ans plus tard, celui de major dans l'armée de réserve en 1962 et finalement, en 1967 le grade de lieutenant-colonel d'artillerie dans l'armée de réserve[9],[10].
+          <t>Parcours académique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir suivi des études humanités gréco-latines à l'école des cadets de Brustem. Roger Vanhoorne s'inscrit en 1940 à l'université de Gand. Il y obtient en 1944 sa licence en botanique l’agrégation de l'enseignement supérieur en botanique et zoologie et, en 1957, son doctorat en sciences botaniques.
 </t>
         </is>
       </c>
@@ -549,15 +557,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions scientifiques</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lauréat du prix scientifique Floralia of Ghent en 1950 et 1960 ;
-Lauréat du prix Baron van Ertborn décerné par l'Académie royale des sciences de Belgique en 1978[11] ;
-Membre du "Comité National des Sciences Quaternaires" de l'Académie royale des sciences de Belgique ;
-Membre du "Centro Superiore di Logica e Scienze Comparata" de Bologne.</t>
+          <t>Carrière scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Vanhoorne commence sa carrière en 1944 en tant que collaborateur scientifique au département de paléobotanique du Musée Royal d'Histoire Naturelle à Bruxelles.
+Il devient l'assistant de François Stockmans en 1947 à l'Institut royal des sciences naturelles de Belgique, y est nommé sous-directeur de laboratoire en 1957, pour ensuite devenir directeur de laboratoire de 1963 à 1966.
+Il redevient collaborateur scientifique dans le département de micropaléontologie et paleobotanique de l'Institut royal des sciences naturelles de Belgique[N 1] lorsqu'il est nommé professeur ordinaire à l'université d'Anvers, fonction qu'il assurera jusqu'à sa retraite prise en 1985. Il y assure la fonction de directeur du département de botanique générale, (titulaire de la chaire Algemene Plantkunde).
+Il est aussi professeur ordinaire à l’Universitaire Instelling te Antwerpen (UIA) de 1973 à 1985 et professeur en paléobotanique, en palynologie et en datation par le carbone 14 à la Vrije Universiteit Brussel de 1977 à 1985, cours donnés dans le cadre du programme international post-graduat en géologie quaternaire fondamentale et appliquée.
+En dehors des auditoires, ses activités concernent la recherche stratigraphique macro et microbotanique des dépôts de l'ère cénozoïque en Belgique et dans les pays limitrophes.
+</t>
         </is>
       </c>
     </row>
@@ -582,18 +598,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Décorations</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Commandeur de l'ordre de Léopold II (décision du 7 avril 1978, no 18597)[12];
- Officier de l'ordre de Léopold (décision du 27 mars 1969, no 12839)[13];
- Chevalier de l'ordre de Léopold (décision du 14 novembre, no 8578)[14];
- Officier de l'ordre de la Couronne (décision du 7 avril 1966, no 11066)[15];
- Chevalier de l'ordre de la Couronne (décision du 15 novembre 1956, no 5115)[16];
-Médaille du souvenir de la guerre 1940-45[17] ;
-Double Médaille civique de 1re classe (1966 &amp; 1977)[18].</t>
+          <t>Carrière militaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Vanhoorne est admis en 1939 à l'École royale militaire.
+En 1940, il participe à la seconde Guerre mondiale. Il obtient le grade de sous-lieutenant dans l'armée active deux ans plus tard, celui de major dans l'armée de réserve en 1962 et finalement, en 1967 le grade de lieutenant-colonel d'artillerie dans l'armée de réserve,.
+</t>
         </is>
       </c>
     </row>
@@ -618,10 +636,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinctions scientifiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lauréat du prix scientifique Floralia of Ghent en 1950 et 1960 ;
+Lauréat du prix Baron van Ertborn décerné par l'Académie royale des sciences de Belgique en 1978 ;
+Membre du "Comité National des Sciences Quaternaires" de l'Académie royale des sciences de Belgique ;
+Membre du "Centro Superiore di Logica e Scienze Comparata" de Bologne.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rogier_Vanhoorne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rogier_Vanhoorne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de l'ordre de Léopold II (décision du 7 avril 1978, no 18597);
+ Officier de l'ordre de Léopold (décision du 27 mars 1969, no 12839);
+ Chevalier de l'ordre de Léopold (décision du 14 novembre, no 8578);
+ Officier de l'ordre de la Couronne (décision du 7 avril 1966, no 11066);
+ Chevalier de l'ordre de la Couronne (décision du 15 novembre 1956, no 5115);
+Médaille du souvenir de la guerre 1940-45 ;
+Double Médaille civique de 1re classe (1966 &amp; 1977).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rogier_Vanhoorne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rogier_Vanhoorne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>VANHOORNE R., Etude pollinique d'une tourbière à Heusden-Lez-Gand (Belgique), in Bulletin du Musée royal d'Histoire naturelle de Belgique, Tome XXI, no 18, pp. 1-11, pl. I-II, fig. 1-4, Bruxelles, 1945 ;
 VANHOORNE R. &amp; STOCKMANS F. &amp; VANDEN BERGHEN C., Het veenonderzoek in de streek van Lampernisse-Pervijze, in Natuurwetenschappelijk Tijdschrift, Jg. 31, pp. 154-160, fig. 1, Gent, 1948 ;
